--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H2">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I2">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J2">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1138933333333333</v>
+        <v>0.2125093333333333</v>
       </c>
       <c r="N2">
-        <v>0.34168</v>
+        <v>0.637528</v>
       </c>
       <c r="O2">
-        <v>0.04309014122589485</v>
+        <v>0.0797468128006088</v>
       </c>
       <c r="P2">
-        <v>0.04309014122589485</v>
+        <v>0.07974681280060882</v>
       </c>
       <c r="Q2">
-        <v>0.06589807523555555</v>
+        <v>2.365776658224889</v>
       </c>
       <c r="R2">
-        <v>0.5930826771199998</v>
+        <v>21.291989924024</v>
       </c>
       <c r="S2">
-        <v>0.001267969050298416</v>
+        <v>0.01193887275121342</v>
       </c>
       <c r="T2">
-        <v>0.001267969050298416</v>
+        <v>0.01193887275121343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H3">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I3">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J3">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.176534</v>
       </c>
       <c r="O3">
-        <v>0.1483757206071968</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="P3">
-        <v>0.1483757206071967</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="Q3">
-        <v>0.226912099184</v>
+        <v>4.365952044158002</v>
       </c>
       <c r="R3">
-        <v>2.042208892656</v>
+        <v>39.29356839742201</v>
       </c>
       <c r="S3">
-        <v>0.004366098977475407</v>
+        <v>0.0220327416418983</v>
       </c>
       <c r="T3">
-        <v>0.004366098977475406</v>
+        <v>0.02203274164189831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H4">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I4">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J4">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2142096666666667</v>
+        <v>0.3621826666666667</v>
       </c>
       <c r="N4">
-        <v>0.642629</v>
+        <v>1.086548</v>
       </c>
       <c r="O4">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="P4">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="Q4">
-        <v>0.1239405706817778</v>
+        <v>4.032026666187112</v>
       </c>
       <c r="R4">
-        <v>1.115465136136</v>
+        <v>36.288239995684</v>
       </c>
       <c r="S4">
-        <v>0.002384786006860866</v>
+        <v>0.02034758992559612</v>
       </c>
       <c r="T4">
-        <v>0.002384786006860866</v>
+        <v>0.02034758992559613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H5">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I5">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J5">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8158119999999999</v>
+        <v>0.159654</v>
       </c>
       <c r="N5">
-        <v>2.447436</v>
+        <v>0.478962</v>
       </c>
       <c r="O5">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770374</v>
       </c>
       <c r="P5">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770376</v>
       </c>
       <c r="Q5">
-        <v>0.4720244722026665</v>
+        <v>1.777360554794</v>
       </c>
       <c r="R5">
-        <v>4.248220249823999</v>
+        <v>15.996244993146</v>
       </c>
       <c r="S5">
-        <v>0.00908239610333105</v>
+        <v>0.008969435649362357</v>
       </c>
       <c r="T5">
-        <v>0.00908239610333105</v>
+        <v>0.00896943564936236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5785946666666666</v>
+        <v>11.13257766666667</v>
       </c>
       <c r="H6">
-        <v>1.735784</v>
+        <v>33.397733</v>
       </c>
       <c r="I6">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="J6">
-        <v>0.02942596645602161</v>
+        <v>0.1497097166887939</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9257736666666666</v>
+        <v>1.345945333333334</v>
       </c>
       <c r="N6">
-        <v>2.777321</v>
+        <v>4.037836</v>
       </c>
       <c r="O6">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="P6">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="Q6">
-        <v>0.5356477060737777</v>
+        <v>14.98384095842089</v>
       </c>
       <c r="R6">
-        <v>4.820829354663998</v>
+        <v>134.854568625788</v>
       </c>
       <c r="S6">
-        <v>0.01030659409606605</v>
+        <v>0.07561583207995355</v>
       </c>
       <c r="T6">
-        <v>0.01030659409606605</v>
+        <v>0.07561583207995357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.13257766666667</v>
+      </c>
+      <c r="H7">
+        <v>33.397733</v>
+      </c>
+      <c r="I7">
+        <v>0.1497097166887939</v>
+      </c>
+      <c r="J7">
+        <v>0.1497097166887939</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.5785946666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.735784</v>
-      </c>
-      <c r="I7">
-        <v>0.02942596645602161</v>
-      </c>
-      <c r="J7">
-        <v>0.02942596645602161</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.1812746666666667</v>
+        <v>0.192331</v>
       </c>
       <c r="N7">
-        <v>0.543824</v>
+        <v>0.5769930000000001</v>
       </c>
       <c r="O7">
-        <v>0.06858303957513183</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="P7">
-        <v>0.06858303957513182</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="Q7">
-        <v>0.1048845553351111</v>
+        <v>2.141139795207667</v>
       </c>
       <c r="R7">
-        <v>0.9439609980159999</v>
+        <v>19.27025815686901</v>
       </c>
       <c r="S7">
-        <v>0.002018122221989832</v>
+        <v>0.01080524464077011</v>
       </c>
       <c r="T7">
-        <v>0.002018122221989832</v>
+        <v>0.01080524464077012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1.60007</v>
       </c>
       <c r="I8">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J8">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1138933333333333</v>
+        <v>0.2125093333333333</v>
       </c>
       <c r="N8">
-        <v>0.34168</v>
+        <v>0.637528</v>
       </c>
       <c r="O8">
-        <v>0.04309014122589485</v>
+        <v>0.0797468128006088</v>
       </c>
       <c r="P8">
-        <v>0.04309014122589485</v>
+        <v>0.07974681280060882</v>
       </c>
       <c r="Q8">
-        <v>0.06074576862222222</v>
+        <v>0.1133432696622222</v>
       </c>
       <c r="R8">
-        <v>0.5467119176</v>
+        <v>1.02008942696</v>
       </c>
       <c r="S8">
-        <v>0.001168831627847121</v>
+        <v>0.0005719858926662496</v>
       </c>
       <c r="T8">
-        <v>0.001168831627847121</v>
+        <v>0.0005719858926662498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.60007</v>
       </c>
       <c r="I9">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J9">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.176534</v>
       </c>
       <c r="O9">
-        <v>0.1483757206071968</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="P9">
-        <v>0.1483757206071967</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="Q9">
         <v>0.2091707508200001</v>
@@ -1013,10 +1013,10 @@
         <v>1.88253675738</v>
       </c>
       <c r="S9">
-        <v>0.00402473118250259</v>
+        <v>0.00105557850046146</v>
       </c>
       <c r="T9">
-        <v>0.00402473118250259</v>
+        <v>0.00105557850046146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.60007</v>
       </c>
       <c r="I10">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J10">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2142096666666667</v>
+        <v>0.3621826666666667</v>
       </c>
       <c r="N10">
-        <v>0.642629</v>
+        <v>1.086548</v>
       </c>
       <c r="O10">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="P10">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="Q10">
-        <v>0.1142501537811111</v>
+        <v>0.1931725398177778</v>
       </c>
       <c r="R10">
-        <v>1.02825138403</v>
+        <v>1.73855285836</v>
       </c>
       <c r="S10">
-        <v>0.002198329138877802</v>
+        <v>0.0009748436581683131</v>
       </c>
       <c r="T10">
-        <v>0.002198329138877802</v>
+        <v>0.0009748436581683136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.60007</v>
       </c>
       <c r="I11">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J11">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8158119999999999</v>
+        <v>0.159654</v>
       </c>
       <c r="N11">
-        <v>2.447436</v>
+        <v>0.478962</v>
       </c>
       <c r="O11">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770374</v>
       </c>
       <c r="P11">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770376</v>
       </c>
       <c r="Q11">
-        <v>0.4351187689466666</v>
+        <v>0.08515252526</v>
       </c>
       <c r="R11">
-        <v>3.91606892052</v>
+        <v>0.7663727273400001</v>
       </c>
       <c r="S11">
-        <v>0.008372279922534668</v>
+        <v>0.0004297215292868898</v>
       </c>
       <c r="T11">
-        <v>0.008372279922534668</v>
+        <v>0.00042972152928689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.60007</v>
       </c>
       <c r="I12">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J12">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9257736666666666</v>
+        <v>1.345945333333334</v>
       </c>
       <c r="N12">
-        <v>2.777321</v>
+        <v>4.037836</v>
       </c>
       <c r="O12">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="P12">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="Q12">
-        <v>0.4937675569411111</v>
+        <v>0.7178689165022224</v>
       </c>
       <c r="R12">
-        <v>4.44390801247</v>
+        <v>6.460820248520001</v>
       </c>
       <c r="S12">
-        <v>0.009500762776527725</v>
+        <v>0.003622719674900428</v>
       </c>
       <c r="T12">
-        <v>0.009500762776527725</v>
+        <v>0.003622719674900428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.60007</v>
       </c>
       <c r="I13">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698235</v>
       </c>
       <c r="J13">
-        <v>0.02712526797532787</v>
+        <v>0.007172523547698237</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1812746666666667</v>
+        <v>0.192331</v>
       </c>
       <c r="N13">
-        <v>0.543824</v>
+        <v>0.5769930000000001</v>
       </c>
       <c r="O13">
-        <v>0.06858303957513183</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="P13">
-        <v>0.06858303957513182</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="Q13">
-        <v>0.09668405196444445</v>
+        <v>0.1025810210566667</v>
       </c>
       <c r="R13">
-        <v>0.87015646768</v>
+        <v>0.9232291895100002</v>
       </c>
       <c r="S13">
-        <v>0.001860333327037967</v>
+        <v>0.0005176742922148948</v>
       </c>
       <c r="T13">
-        <v>0.001860333327037967</v>
+        <v>0.0005176742922148949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H14">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I14">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J14">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1138933333333333</v>
+        <v>0.2125093333333333</v>
       </c>
       <c r="N14">
-        <v>0.34168</v>
+        <v>0.637528</v>
       </c>
       <c r="O14">
-        <v>0.04309014122589485</v>
+        <v>0.0797468128006088</v>
       </c>
       <c r="P14">
-        <v>0.04309014122589485</v>
+        <v>0.07974681280060882</v>
       </c>
       <c r="Q14">
-        <v>0.1314464979377778</v>
+        <v>0.1583832769697778</v>
       </c>
       <c r="R14">
-        <v>1.18301848144</v>
+        <v>1.425449492728</v>
       </c>
       <c r="S14">
-        <v>0.002529210307879968</v>
+        <v>0.0007992799248772617</v>
       </c>
       <c r="T14">
-        <v>0.002529210307879969</v>
+        <v>0.0007992799248772621</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H15">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I15">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J15">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.176534</v>
       </c>
       <c r="O15">
-        <v>0.1483757206071968</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="P15">
-        <v>0.1483757206071967</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="Q15">
-        <v>0.4526202119080001</v>
+        <v>0.2922903941260001</v>
       </c>
       <c r="R15">
-        <v>4.073581907172001</v>
+        <v>2.630613547134001</v>
       </c>
       <c r="S15">
-        <v>0.008709031609609142</v>
+        <v>0.001475041107426724</v>
       </c>
       <c r="T15">
-        <v>0.008709031609609142</v>
+        <v>0.001475041107426725</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H16">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I16">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J16">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2142096666666667</v>
+        <v>0.3621826666666667</v>
       </c>
       <c r="N16">
-        <v>0.642629</v>
+        <v>1.086548</v>
       </c>
       <c r="O16">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="P16">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="Q16">
-        <v>0.2472235176868889</v>
+        <v>0.2699348621942222</v>
       </c>
       <c r="R16">
-        <v>2.225011659182</v>
+        <v>2.429413759748</v>
       </c>
       <c r="S16">
-        <v>0.004756918435210126</v>
+        <v>0.001362224096534645</v>
       </c>
       <c r="T16">
-        <v>0.004756918435210127</v>
+        <v>0.001362224096534645</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H17">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I17">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J17">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8158119999999999</v>
+        <v>0.159654</v>
       </c>
       <c r="N17">
-        <v>2.447436</v>
+        <v>0.478962</v>
       </c>
       <c r="O17">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770374</v>
       </c>
       <c r="P17">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770376</v>
       </c>
       <c r="Q17">
-        <v>0.9415444015653331</v>
+        <v>0.118990179418</v>
       </c>
       <c r="R17">
-        <v>8.473899614087999</v>
+        <v>1.070911614762</v>
       </c>
       <c r="S17">
-        <v>0.01811660137870673</v>
+        <v>0.0006004829770285588</v>
       </c>
       <c r="T17">
-        <v>0.01811660137870674</v>
+        <v>0.0006004829770285591</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H18">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I18">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J18">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9257736666666666</v>
+        <v>1.345945333333334</v>
       </c>
       <c r="N18">
-        <v>2.777321</v>
+        <v>4.037836</v>
       </c>
       <c r="O18">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="P18">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="Q18">
-        <v>1.068453286990889</v>
+        <v>1.003133505581778</v>
       </c>
       <c r="R18">
-        <v>9.616079582917999</v>
+        <v>9.028201550236002</v>
       </c>
       <c r="S18">
-        <v>0.02055850181892853</v>
+        <v>0.005062305114044723</v>
       </c>
       <c r="T18">
-        <v>0.02055850181892854</v>
+        <v>0.005062305114044725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.154119333333333</v>
+        <v>0.7453003333333333</v>
       </c>
       <c r="H19">
-        <v>3.462358</v>
+        <v>2.235901</v>
       </c>
       <c r="I19">
-        <v>0.05869579991907869</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="J19">
-        <v>0.0586957999190787</v>
+        <v>0.01002271936404159</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1812746666666667</v>
+        <v>0.192331</v>
       </c>
       <c r="N19">
-        <v>0.543824</v>
+        <v>0.5769930000000001</v>
       </c>
       <c r="O19">
-        <v>0.06858303957513183</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="P19">
-        <v>0.06858303957513182</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="Q19">
-        <v>0.2092125974435556</v>
+        <v>0.1433443584103334</v>
       </c>
       <c r="R19">
-        <v>1.882913376992</v>
+        <v>1.290099225693</v>
       </c>
       <c r="S19">
-        <v>0.004025536368744193</v>
+        <v>0.000723386144129679</v>
       </c>
       <c r="T19">
-        <v>0.004025536368744194</v>
+        <v>0.0007233861441296792</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H20">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I20">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J20">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1138933333333333</v>
+        <v>0.2125093333333333</v>
       </c>
       <c r="N20">
-        <v>0.34168</v>
+        <v>0.637528</v>
       </c>
       <c r="O20">
-        <v>0.04309014122589485</v>
+        <v>0.0797468128006088</v>
       </c>
       <c r="P20">
-        <v>0.04309014122589485</v>
+        <v>0.07974681280060882</v>
       </c>
       <c r="Q20">
-        <v>1.65083682872</v>
+        <v>12.74582330863289</v>
       </c>
       <c r="R20">
-        <v>14.85753145848</v>
+        <v>114.712409777696</v>
       </c>
       <c r="S20">
-        <v>0.03176435728095967</v>
+        <v>0.06432169413041562</v>
       </c>
       <c r="T20">
-        <v>0.03176435728095967</v>
+        <v>0.06432169413041565</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H21">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I21">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J21">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.176534</v>
       </c>
       <c r="O21">
-        <v>0.1483757206071968</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="P21">
-        <v>0.1483757206071967</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="Q21">
-        <v>5.684458140486002</v>
+        <v>23.52193861383201</v>
       </c>
       <c r="R21">
-        <v>51.16012326437401</v>
+        <v>211.697447524488</v>
       </c>
       <c r="S21">
-        <v>0.1093767452856375</v>
+        <v>0.11870327276925</v>
       </c>
       <c r="T21">
-        <v>0.1093767452856375</v>
+        <v>0.1187032727692501</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H22">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I22">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J22">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2142096666666667</v>
+        <v>0.3621826666666667</v>
       </c>
       <c r="N22">
-        <v>0.642629</v>
+        <v>1.086548</v>
       </c>
       <c r="O22">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="P22">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="Q22">
-        <v>3.104880649741</v>
+        <v>21.72288718981511</v>
       </c>
       <c r="R22">
-        <v>27.943925847669</v>
+        <v>195.505984708336</v>
       </c>
       <c r="S22">
-        <v>0.05974214807745795</v>
+        <v>0.1096243743239745</v>
       </c>
       <c r="T22">
-        <v>0.05974214807745795</v>
+        <v>0.1096243743239746</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H23">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I23">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J23">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8158119999999999</v>
+        <v>0.159654</v>
       </c>
       <c r="N23">
-        <v>2.447436</v>
+        <v>0.478962</v>
       </c>
       <c r="O23">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770374</v>
       </c>
       <c r="P23">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770376</v>
       </c>
       <c r="Q23">
-        <v>11.824858009644</v>
+        <v>9.575681418776</v>
       </c>
       <c r="R23">
-        <v>106.423722086796</v>
+        <v>86.181132768984</v>
       </c>
       <c r="S23">
-        <v>0.2275264327039417</v>
+        <v>0.04832359875031705</v>
       </c>
       <c r="T23">
-        <v>0.2275264327039417</v>
+        <v>0.04832359875031707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H24">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I24">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J24">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9257736666666666</v>
+        <v>1.345945333333334</v>
       </c>
       <c r="N24">
-        <v>2.777321</v>
+        <v>4.037836</v>
       </c>
       <c r="O24">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="P24">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="Q24">
-        <v>13.418706953809</v>
+        <v>80.7267197758169</v>
       </c>
       <c r="R24">
-        <v>120.768362584281</v>
+        <v>726.5404779823521</v>
       </c>
       <c r="S24">
-        <v>0.2581942651835407</v>
+        <v>0.4073867377445085</v>
       </c>
       <c r="T24">
-        <v>0.2581942651835407</v>
+        <v>0.4073867377445086</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.494587</v>
+        <v>59.97771066666667</v>
       </c>
       <c r="H25">
-        <v>43.483761</v>
+        <v>179.933132</v>
       </c>
       <c r="I25">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195796</v>
       </c>
       <c r="J25">
-        <v>0.7371606677833539</v>
+        <v>0.8065738538195798</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1812746666666667</v>
+        <v>0.192331</v>
       </c>
       <c r="N25">
-        <v>0.543824</v>
+        <v>0.5769930000000001</v>
       </c>
       <c r="O25">
-        <v>0.06858303957513183</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="P25">
-        <v>0.06858303957513182</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="Q25">
-        <v>2.627501426896</v>
+        <v>11.53557307023067</v>
       </c>
       <c r="R25">
-        <v>23.647512842064</v>
+        <v>103.820157632076</v>
       </c>
       <c r="S25">
-        <v>0.05055671925181637</v>
+        <v>0.05821417610111385</v>
       </c>
       <c r="T25">
-        <v>0.05055671925181635</v>
+        <v>0.05821417610111387</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H26">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I26">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J26">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1138933333333333</v>
+        <v>0.2125093333333333</v>
       </c>
       <c r="N26">
-        <v>0.34168</v>
+        <v>0.637528</v>
       </c>
       <c r="O26">
-        <v>0.04309014122589485</v>
+        <v>0.0797468128006088</v>
       </c>
       <c r="P26">
-        <v>0.04309014122589485</v>
+        <v>0.07974681280060882</v>
       </c>
       <c r="Q26">
-        <v>0.1290420578133333</v>
+        <v>0.119479760008</v>
       </c>
       <c r="R26">
-        <v>1.16137852032</v>
+        <v>1.075317840072</v>
       </c>
       <c r="S26">
-        <v>0.00248294559301245</v>
+        <v>0.0006029536415121029</v>
       </c>
       <c r="T26">
-        <v>0.002482945593012451</v>
+        <v>0.0006029536415121032</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H27">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I27">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J27">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.176534</v>
       </c>
       <c r="O27">
-        <v>0.1483757206071968</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="P27">
-        <v>0.1483757206071967</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="Q27">
-        <v>0.4443408114240001</v>
+        <v>0.220495413474</v>
       </c>
       <c r="R27">
-        <v>3.999067302816001</v>
+        <v>1.984458721266</v>
       </c>
       <c r="S27">
-        <v>0.008549724626344273</v>
+        <v>0.001112728318854703</v>
       </c>
       <c r="T27">
-        <v>0.008549724626344271</v>
+        <v>0.001112728318854703</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H28">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I28">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J28">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2142096666666667</v>
+        <v>0.3621826666666667</v>
       </c>
       <c r="N28">
-        <v>0.642629</v>
+        <v>1.086548</v>
       </c>
       <c r="O28">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="P28">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="Q28">
-        <v>0.2427012660106667</v>
+        <v>0.203631047228</v>
       </c>
       <c r="R28">
-        <v>2.184311394096</v>
+        <v>1.832679425052</v>
       </c>
       <c r="S28">
-        <v>0.00466990413103488</v>
+        <v>0.00102762243113666</v>
       </c>
       <c r="T28">
-        <v>0.004669904131034881</v>
+        <v>0.00102762243113666</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H29">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I29">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J29">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8158119999999999</v>
+        <v>0.159654</v>
       </c>
       <c r="N29">
-        <v>2.447436</v>
+        <v>0.478962</v>
       </c>
       <c r="O29">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770374</v>
       </c>
       <c r="P29">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770376</v>
       </c>
       <c r="Q29">
-        <v>0.9243215224959999</v>
+        <v>0.08976274738199999</v>
       </c>
       <c r="R29">
-        <v>8.318893702463999</v>
+        <v>0.807864726438</v>
       </c>
       <c r="S29">
-        <v>0.0177852096417116</v>
+        <v>0.0004529869778988842</v>
       </c>
       <c r="T29">
-        <v>0.0177852096417116</v>
+        <v>0.0004529869778988844</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H30">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I30">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J30">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9257736666666666</v>
+        <v>1.345945333333334</v>
       </c>
       <c r="N30">
-        <v>2.777321</v>
+        <v>4.037836</v>
       </c>
       <c r="O30">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="P30">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="Q30">
-        <v>1.048908970522667</v>
+        <v>0.7567348825960001</v>
       </c>
       <c r="R30">
-        <v>9.440180734704001</v>
+        <v>6.810613943364</v>
       </c>
       <c r="S30">
-        <v>0.02018244245297041</v>
+        <v>0.003818856458114255</v>
       </c>
       <c r="T30">
-        <v>0.02018244245297042</v>
+        <v>0.003818856458114256</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.133008</v>
+        <v>0.562233</v>
       </c>
       <c r="H31">
-        <v>3.399024</v>
+        <v>1.686699</v>
       </c>
       <c r="I31">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450777</v>
       </c>
       <c r="J31">
-        <v>0.05762212706604763</v>
+        <v>0.007560849397450779</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1812746666666667</v>
+        <v>0.192331</v>
       </c>
       <c r="N31">
-        <v>0.543824</v>
+        <v>0.5769930000000001</v>
       </c>
       <c r="O31">
-        <v>0.06858303957513183</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="P31">
-        <v>0.06858303957513182</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="Q31">
-        <v>0.2053856475306667</v>
+        <v>0.108134835123</v>
       </c>
       <c r="R31">
-        <v>1.848470827776</v>
+        <v>0.9732135161070001</v>
       </c>
       <c r="S31">
-        <v>0.003951900620974019</v>
+        <v>0.0005457015699341722</v>
       </c>
       <c r="T31">
-        <v>0.003951900620974019</v>
+        <v>0.0005457015699341723</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H32">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I32">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J32">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M32">
-        <v>0.1138933333333333</v>
+        <v>0.2125093333333333</v>
       </c>
       <c r="N32">
-        <v>0.34168</v>
+        <v>0.637528</v>
       </c>
       <c r="O32">
-        <v>0.04309014122589485</v>
+        <v>0.0797468128006088</v>
       </c>
       <c r="P32">
-        <v>0.04309014122589485</v>
+        <v>0.07974681280060882</v>
       </c>
       <c r="Q32">
-        <v>0.2014839884088889</v>
+        <v>0.2996193175057778</v>
       </c>
       <c r="R32">
-        <v>1.81335589568</v>
+        <v>2.696573857552</v>
       </c>
       <c r="S32">
-        <v>0.003876827365897224</v>
+        <v>0.00151202645992412</v>
       </c>
       <c r="T32">
-        <v>0.003876827365897224</v>
+        <v>0.001512026459924121</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H33">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I33">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J33">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.176534</v>
       </c>
       <c r="O33">
-        <v>0.1483757206071968</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="P33">
-        <v>0.1483757206071967</v>
+        <v>0.1471697504290816</v>
       </c>
       <c r="Q33">
-        <v>0.6937858897760002</v>
+        <v>0.5529362068840001</v>
       </c>
       <c r="R33">
-        <v>6.244073007984001</v>
+        <v>4.976425861956002</v>
       </c>
       <c r="S33">
-        <v>0.01334938892562786</v>
+        <v>0.002790388091190294</v>
       </c>
       <c r="T33">
-        <v>0.01334938892562785</v>
+        <v>0.002790388091190294</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H34">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I34">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J34">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2142096666666667</v>
+        <v>0.3621826666666667</v>
       </c>
       <c r="N34">
-        <v>0.642629</v>
+        <v>1.086548</v>
       </c>
       <c r="O34">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="P34">
-        <v>0.08104359156478454</v>
+        <v>0.1359136225465798</v>
       </c>
       <c r="Q34">
-        <v>0.3789494673004444</v>
+        <v>0.5106454464702224</v>
       </c>
       <c r="R34">
-        <v>3.410545205704</v>
+        <v>4.595809018232001</v>
       </c>
       <c r="S34">
-        <v>0.007291505775342914</v>
+        <v>0.002576968111169444</v>
       </c>
       <c r="T34">
-        <v>0.007291505775342914</v>
+        <v>0.002576968111169445</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H35">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I35">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J35">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8158119999999999</v>
+        <v>0.159654</v>
       </c>
       <c r="N35">
-        <v>2.447436</v>
+        <v>0.478962</v>
       </c>
       <c r="O35">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770374</v>
       </c>
       <c r="P35">
-        <v>0.3086524317529243</v>
+        <v>0.05991218103770376</v>
       </c>
       <c r="Q35">
-        <v>1.443219288970667</v>
+        <v>0.225097984012</v>
       </c>
       <c r="R35">
-        <v>12.988973600736</v>
+        <v>2.025881856108</v>
       </c>
       <c r="S35">
-        <v>0.02776951200269854</v>
+        <v>0.001135955153809992</v>
       </c>
       <c r="T35">
-        <v>0.02776951200269854</v>
+        <v>0.001135955153809992</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.769058666666667</v>
+        <v>1.409911333333334</v>
       </c>
       <c r="H36">
-        <v>5.307176</v>
+        <v>4.229734000000001</v>
       </c>
       <c r="I36">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243567</v>
       </c>
       <c r="J36">
-        <v>0.0899701708001704</v>
+        <v>0.01896033718243568</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9257736666666666</v>
+        <v>1.345945333333334</v>
       </c>
       <c r="N36">
-        <v>2.777321</v>
+        <v>4.037836</v>
       </c>
       <c r="O36">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="P36">
-        <v>0.3502550752740679</v>
+        <v>0.5050829949610984</v>
       </c>
       <c r="Q36">
-        <v>1.637747928388444</v>
+        <v>1.897663579513778</v>
       </c>
       <c r="R36">
-        <v>14.739731355496</v>
+        <v>17.078972215624</v>
       </c>
       <c r="S36">
-        <v>0.03151250894603443</v>
+        <v>0.009576543889576886</v>
       </c>
       <c r="T36">
-        <v>0.03151250894603443</v>
+        <v>0.009576543889576888</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.409911333333334</v>
+      </c>
+      <c r="H37">
+        <v>4.229734000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.01896033718243567</v>
+      </c>
+      <c r="J37">
+        <v>0.01896033718243568</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="L37">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G37">
-        <v>1.769058666666667</v>
-      </c>
-      <c r="H37">
-        <v>5.307176</v>
-      </c>
-      <c r="I37">
-        <v>0.0899701708001704</v>
-      </c>
-      <c r="J37">
-        <v>0.0899701708001704</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M37">
-        <v>0.1812746666666667</v>
+        <v>0.192331</v>
       </c>
       <c r="N37">
-        <v>0.543824</v>
+        <v>0.5769930000000001</v>
       </c>
       <c r="O37">
-        <v>0.06858303957513183</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="P37">
-        <v>0.06858303957513182</v>
+        <v>0.07217463822492767</v>
       </c>
       <c r="Q37">
-        <v>0.3206855201137778</v>
+        <v>0.2711696566513334</v>
       </c>
       <c r="R37">
-        <v>2.886169681024</v>
+        <v>2.440526909862001</v>
       </c>
       <c r="S37">
-        <v>0.006170427784569457</v>
+        <v>0.001368455476764939</v>
       </c>
       <c r="T37">
-        <v>0.006170427784569455</v>
+        <v>0.00136845547676494</v>
       </c>
     </row>
   </sheetData>
